--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2207840.334432152</v>
+        <v>2309239.261267631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5958898.357416945</v>
+        <v>6300318.941873851</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>214.6715695850673</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>324.7175085345935</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -710,16 +712,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>124.4039714309955</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -871,16 +873,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>202.3982521784725</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -899,10 +901,10 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>89.05954170860154</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>173.5406636191338</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>42.71857617560787</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,7 +1110,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1117,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>156.3641251011868</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1148,7 +1150,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>376.7941292938893</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.8557634978953</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1345,16 +1347,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>76.19594707952</v>
       </c>
       <c r="W10" t="n">
-        <v>10.27243867362995</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1373,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>311.8946396031142</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>401.283897344658</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>30.60449825298932</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1585,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>142.6662602692067</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1607,13 +1609,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>347.2930317019599</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1822,10 +1824,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>129.8806935114354</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>86.39942580679876</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068488</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1859,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>45.28878522488377</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.378995526348093</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2245,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>119.6396103681155</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>145.0655452987987</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2377,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>237.3263355412572</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.01070491480962</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.33176001090012</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2804,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8603782851912</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>89.0301804312094</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3187,10 +3189,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>15.43825662223396</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3199,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>117.6389794551519</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>123.9086344760393</v>
+        <v>125.4203831793923</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3560,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250119</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.13171203300003</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>23.48670323942855</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3718,13 +3720,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648614</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3791,16 +3793,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>193.3956557762489</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3898,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>85.36224452238821</v>
+        <v>167.9261600196103</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3977,10 +3979,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068496</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855909</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458131</v>
       </c>
       <c r="U44" t="n">
-        <v>31.93964672933536</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250129</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026565</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439301</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446585</v>
       </c>
     </row>
     <row r="45">
@@ -4141,10 +4143,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>104.9037564455521</v>
+        <v>4.250061189177739</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,7 +4194,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1458.092998463209</v>
+        <v>1188.638128786318</v>
       </c>
       <c r="C2" t="n">
-        <v>1031.192268476509</v>
+        <v>1165.777802840022</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.940051701914</v>
+        <v>1146.525586065426</v>
       </c>
       <c r="E2" t="n">
-        <v>795.1000824240679</v>
+        <v>720.5486462132836</v>
       </c>
       <c r="F2" t="n">
-        <v>774.0163046538721</v>
+        <v>699.4648684430879</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>371.4673850748115</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884635</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231755</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>38.70213529231755</v>
       </c>
       <c r="K2" t="n">
-        <v>856.3013579804531</v>
+        <v>403.5871017449325</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>882.5260259873621</v>
       </c>
       <c r="M2" t="n">
-        <v>1769.873171385915</v>
+        <v>882.5260259873621</v>
       </c>
       <c r="N2" t="n">
-        <v>1845.599623041337</v>
+        <v>882.5260259873621</v>
       </c>
       <c r="O2" t="n">
-        <v>1845.599623041337</v>
+        <v>882.5260259873621</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1361.464950229792</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733975</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489018</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1609.813899533651</v>
       </c>
       <c r="U2" t="n">
-        <v>1482.877419510889</v>
+        <v>1609.813899533651</v>
       </c>
       <c r="V2" t="n">
-        <v>1482.877419510889</v>
+        <v>1609.813899533651</v>
       </c>
       <c r="W2" t="n">
-        <v>1482.877419510889</v>
+        <v>1213.422549833998</v>
       </c>
       <c r="X2" t="n">
-        <v>1475.197824719041</v>
+        <v>1205.742955042149</v>
       </c>
       <c r="Y2" t="n">
-        <v>1473.900958714335</v>
+        <v>1204.446089037443</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000796</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231755</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231755</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662885</v>
+        <v>789.3385488143383</v>
       </c>
       <c r="N3" t="n">
-        <v>1407.269712569019</v>
+        <v>1268.277473056768</v>
       </c>
       <c r="O3" t="n">
-        <v>1845.599623041337</v>
+        <v>1268.277473056768</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.1799496090923</v>
+        <v>620.496504870739</v>
       </c>
       <c r="C4" t="n">
-        <v>744.2073864880083</v>
+        <v>448.5239417496551</v>
       </c>
       <c r="D4" t="n">
-        <v>618.5468092849825</v>
+        <v>448.5239417496551</v>
       </c>
       <c r="E4" t="n">
-        <v>452.338603437836</v>
+        <v>448.5239417496551</v>
       </c>
       <c r="F4" t="n">
-        <v>280.4768292123964</v>
+        <v>448.5239417496551</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231755</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647556</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>96.19346351647556</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>393.4019879271647</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>784.5877828974155</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1162.079293773451</v>
       </c>
       <c r="O4" t="n">
-        <v>1799.725677711293</v>
+        <v>1517.507422453215</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375115</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615877</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1764.971717135012</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1521.632369360912</v>
       </c>
       <c r="U4" t="n">
-        <v>1385.086614473545</v>
+        <v>1241.447920861217</v>
       </c>
       <c r="V4" t="n">
-        <v>1385.086614473545</v>
+        <v>1037.005241893063</v>
       </c>
       <c r="W4" t="n">
-        <v>1385.086614473545</v>
+        <v>1037.005241893063</v>
       </c>
       <c r="X4" t="n">
-        <v>1142.52271791935</v>
+        <v>1037.005241893063</v>
       </c>
       <c r="Y4" t="n">
-        <v>916.1799496090923</v>
+        <v>810.6624735828048</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>526.3839111742037</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>503.5235852279079</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D5" t="n">
-        <v>484.2713684533122</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>358.3859952497895</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>358.3859952497895</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>815.1719019525203</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M5" t="n">
-        <v>815.1719019525203</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.957808655251</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1755.640490002345</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1755.640490002345</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1755.640490002345</v>
+        <v>1724.324787764863</v>
       </c>
       <c r="V5" t="n">
-        <v>1755.640490002345</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="W5" t="n">
-        <v>1359.249140302692</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X5" t="n">
-        <v>947.5291414704394</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y5" t="n">
-        <v>542.1918714253297</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082674</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>493.6978991635576</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="M6" t="n">
-        <v>493.6978991635576</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="N6" t="n">
-        <v>493.6978991635576</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511716</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.228765334056</v>
+        <v>838.3642489656286</v>
       </c>
       <c r="C7" t="n">
-        <v>200.228765334056</v>
+        <v>666.3916858445446</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082674</v>
+        <v>503.0749129713153</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082674</v>
+        <v>503.0749129713153</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>331.2131387458757</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>320.9309218908219</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>712.1167168610727</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1089.608227737109</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>1104.902165973849</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="V7" t="n">
-        <v>823.1906985818782</v>
+        <v>1529.725389815439</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3382947543912</v>
+        <v>1254.872985987952</v>
       </c>
       <c r="X7" t="n">
-        <v>390.3947340461217</v>
+        <v>1254.872985987952</v>
       </c>
       <c r="Y7" t="n">
-        <v>390.3947340461217</v>
+        <v>1028.530217677694</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>930.4243152146078</v>
+        <v>831.8385222885897</v>
       </c>
       <c r="C8" t="n">
-        <v>503.5235852279079</v>
+        <v>404.9377923018898</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.319142682382</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1366.319142682382</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>969.9277929827292</v>
+        <v>1260.663347376674</v>
       </c>
       <c r="X8" t="n">
-        <v>962.2481981908805</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>946.2322754657338</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023296</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="L9" t="n">
-        <v>772.8420314050604</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="M9" t="n">
-        <v>772.8420314050604</v>
+        <v>659.4347056307208</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.627938107791</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="O9" t="n">
-        <v>1686.413844810522</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.490209378816</v>
+        <v>795.2141720205701</v>
       </c>
       <c r="C10" t="n">
-        <v>676.490209378816</v>
+        <v>623.2416088994861</v>
       </c>
       <c r="D10" t="n">
-        <v>513.1734365055867</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="E10" t="n">
-        <v>346.9652306584402</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>1385.086614473545</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>1103.375147081574</v>
+        <v>1454.286805597088</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.99894640114</v>
+        <v>1454.286805597088</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.99894640114</v>
+        <v>1211.722909042894</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.6561780908817</v>
+        <v>985.3801407326357</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2402.635504113683</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1975.734774126983</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.596016555394</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.596016555394</v>
+        <v>1581.174581076926</v>
       </c>
       <c r="M11" t="n">
-        <v>2047.588607372513</v>
+        <v>2585.460682495985</v>
       </c>
       <c r="N11" t="n">
-        <v>2047.588607372513</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O11" t="n">
-        <v>2342.291394605963</v>
+        <v>4406.856391133498</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.57067376389</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>3624.212488149976</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3624.212488149976</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>3624.212488149976</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>3227.821138450323</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
-        <v>3227.821138450323</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2822.483868405213</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>3756.065627259876</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>3652.225668775161</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>3547.523735048099</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731003</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>3359.824132948607</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299953</v>
+        <v>3306.448039710917</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299953</v>
+        <v>3313.894682672829</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>3585.59217195242</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>4143.635082195251</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425906</v>
+        <v>4143.635082195251</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.17432985971</v>
+        <v>4143.635082195251</v>
       </c>
       <c r="N12" t="n">
-        <v>1417.02640348073</v>
+        <v>4143.635082195251</v>
       </c>
       <c r="O12" t="n">
-        <v>1417.02640348073</v>
+        <v>5033.116360206723</v>
       </c>
       <c r="P12" t="n">
-        <v>1417.02640348073</v>
+        <v>5033.116360206723</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>5033.116360206723</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.81142285268</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.931487150358</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069995</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209262</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042479</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>4142.191428809142</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>4002.498540162434</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2394.577444986835</v>
+        <v>869.8257932127801</v>
       </c>
       <c r="C13" t="n">
-        <v>2222.604881865751</v>
+        <v>697.8532300916961</v>
       </c>
       <c r="D13" t="n">
-        <v>2191.691247266772</v>
+        <v>534.5364572184668</v>
       </c>
       <c r="E13" t="n">
-        <v>2025.483041419625</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F13" t="n">
-        <v>1853.621267194186</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>1687.364297488418</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="H13" t="n">
-        <v>1543.568028996572</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I13" t="n">
-        <v>1443.799460736848</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1501.290788961006</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>1727.818390166843</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>2082.507711461264</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2473.693506431515</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2851.18501730755</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>3206.613145987314</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3497.212357909214</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3624.212488149976</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3577.173874837149</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>3577.173874837149</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T13" t="n">
-        <v>3333.834527063049</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U13" t="n">
-        <v>3053.650078563353</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V13" t="n">
-        <v>3053.650078563353</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W13" t="n">
-        <v>3053.650078563353</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X13" t="n">
-        <v>2811.086182009159</v>
+        <v>1286.334530235104</v>
       </c>
       <c r="Y13" t="n">
-        <v>2584.7434136989</v>
+        <v>1059.991761924846</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1676.041156922342</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1325.24011479915</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>901.9474939841507</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>901.9474939841507</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>476.8233121735509</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>72.48424976299951</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1332.080299397014</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2229.072890214133</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3126.065481031252</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.656153268073</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268073</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
-        <v>3519.845194023116</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3261.490284619528</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2904.000869745778</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2507.609520046125</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2095.889521213872</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2095.889521213872</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299951</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299951</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299951</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L15" t="n">
-        <v>72.48424976299951</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M15" t="n">
-        <v>969.4768405801185</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="N15" t="n">
-        <v>991.6906023320378</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>912.1005355356667</v>
+        <v>684.0970829842499</v>
       </c>
       <c r="C16" t="n">
-        <v>740.1279724145827</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="D16" t="n">
-        <v>576.8111995413534</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="E16" t="n">
-        <v>410.6029936942069</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="F16" t="n">
-        <v>238.7412194687674</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299951</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.384268608336</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.19982010864</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>1381.007200400119</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W16" t="n">
-        <v>1381.007200400119</v>
+        <v>1343.169716560768</v>
       </c>
       <c r="X16" t="n">
-        <v>1138.443303845925</v>
+        <v>1100.605820006574</v>
       </c>
       <c r="Y16" t="n">
-        <v>912.1005355356667</v>
+        <v>874.2630516963156</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5583,34 +5585,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>971.931772215671</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>971.931772215671</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.844867123559</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>517.8401132784821</v>
       </c>
       <c r="C19" t="n">
-        <v>516.5477476675582</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5477476675582</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="E19" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5737,16 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,43 +5755,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="Q20" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
@@ -5820,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5829,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.799010768326</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>552.7245472657505</v>
+        <v>681.046097256067</v>
       </c>
       <c r="C22" t="n">
-        <v>552.7245472657505</v>
+        <v>681.046097256067</v>
       </c>
       <c r="D22" t="n">
-        <v>389.4077743925212</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>517.7293243828377</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5947,13 +5949,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.8905159778161</v>
+        <v>871.2120659681327</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,37 +5977,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6063,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>700.2342829360799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1019.275630082919</v>
+        <v>847.4138558574795</v>
       </c>
       <c r="C25" t="n">
-        <v>847.303066961835</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F25" t="n">
         <v>512.1245198631661</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1825.81850877147</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1545.634060271774</v>
       </c>
       <c r="V25" t="n">
-        <v>1759.191944545161</v>
+        <v>1263.922592879803</v>
       </c>
       <c r="W25" t="n">
-        <v>1484.339540717674</v>
+        <v>1263.922592879803</v>
       </c>
       <c r="X25" t="n">
-        <v>1241.775644163479</v>
+        <v>1263.922592879803</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.441598794985</v>
+        <v>1037.579824569545</v>
       </c>
     </row>
     <row r="26">
@@ -6233,19 +6235,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6306,16 +6308,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1748.774177950213</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.774177950213</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>371.6936655237448</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>205.436695817977</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4090.576687723259</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6497,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.84032174079</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C31" t="n">
-        <v>3205.84032174079</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D31" t="n">
-        <v>3205.84032174079</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E31" t="n">
-        <v>3039.632115893643</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036462</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536767</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.765359144795</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="W31" t="n">
-        <v>3864.912955317308</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X31" t="n">
-        <v>3622.349058763114</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y31" t="n">
-        <v>3396.006290452855</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6777,16 +6779,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.799010768326</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.799010768326</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>599.7631605785773</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>584.1689619702602</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>584.1689619702602</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>417.9607561231137</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>789.9291292906429</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,37 +6937,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>374.0002026854196</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N36" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3899.49916549545</v>
+        <v>1068.606254915256</v>
       </c>
       <c r="C37" t="n">
-        <v>3727.526602374366</v>
+        <v>896.6336917941717</v>
       </c>
       <c r="D37" t="n">
-        <v>3564.209829501137</v>
+        <v>733.3169189209424</v>
       </c>
       <c r="E37" t="n">
-        <v>3398.00162365399</v>
+        <v>567.1087130737959</v>
       </c>
       <c r="F37" t="n">
-        <v>3226.139849428551</v>
+        <v>395.2469388483563</v>
       </c>
       <c r="G37" t="n">
-        <v>3059.882879722783</v>
+        <v>228.9899691425884</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>5115.135670291427</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V37" t="n">
-        <v>4833.424202899456</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W37" t="n">
-        <v>4558.571799071969</v>
+        <v>1727.678888491774</v>
       </c>
       <c r="X37" t="n">
-        <v>4316.007902517774</v>
+        <v>1485.114991937579</v>
       </c>
       <c r="Y37" t="n">
-        <v>4089.665134207516</v>
+        <v>1258.772223627321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7178,34 +7180,34 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.8188681099</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
         <v>4173.998480931861</v>
@@ -7242,37 +7244,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>700.2342829360799</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>700.2342829360799</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M39" t="n">
-        <v>700.2342829360799</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N39" t="n">
-        <v>700.2342829360799</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>878.3707945649905</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C40" t="n">
-        <v>706.3982314439065</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D40" t="n">
-        <v>706.3982314439065</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E40" t="n">
-        <v>540.1900255967601</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713204</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2263.390779169462</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2093.255731688597</v>
+        <v>2211.953184840041</v>
       </c>
       <c r="T40" t="n">
-        <v>1849.916383914497</v>
+        <v>1968.613837065941</v>
       </c>
       <c r="U40" t="n">
-        <v>1569.731935414801</v>
+        <v>1688.429388566245</v>
       </c>
       <c r="V40" t="n">
-        <v>1569.731935414801</v>
+        <v>1406.717921174274</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.879531587314</v>
+        <v>1406.717921174274</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.879531587314</v>
+        <v>1164.154024620079</v>
       </c>
       <c r="Y40" t="n">
-        <v>1068.536763277056</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2087.590413605487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1660.689683618787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1830.227306515737</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2727.219897332856</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3624.212488149975</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>3624.212488149975</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P41" t="n">
-        <v>3624.212488149975</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149975</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>3519.845194023115</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3519.845194023115</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>3519.845194023115</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3324.496046774379</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
-        <v>2912.776047942126</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2507.438777897017</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491133</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>79.93089272491133</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>670.4158192932509</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>670.4158192932509</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M42" t="n">
-        <v>670.4158192932509</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N42" t="n">
-        <v>1567.40841011037</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>989.4084025814685</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="C43" t="n">
-        <v>817.4358394603845</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D43" t="n">
-        <v>654.1190665871552</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E43" t="n">
-        <v>487.9108607400087</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F43" t="n">
-        <v>316.0490865145691</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145691</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I43" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2166.672787759574</v>
+        <v>2113.093356960765</v>
       </c>
       <c r="T43" t="n">
-        <v>1923.333439985474</v>
+        <v>1869.754009186664</v>
       </c>
       <c r="U43" t="n">
-        <v>1923.333439985474</v>
+        <v>1589.569560686969</v>
       </c>
       <c r="V43" t="n">
-        <v>1923.333439985474</v>
+        <v>1307.858093294998</v>
       </c>
       <c r="W43" t="n">
-        <v>1648.481036157987</v>
+        <v>1033.005689467511</v>
       </c>
       <c r="X43" t="n">
-        <v>1405.917139603792</v>
+        <v>790.4417929133158</v>
       </c>
       <c r="Y43" t="n">
-        <v>1179.574371293534</v>
+        <v>564.0990246030578</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2083.982304433787</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560448</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I44" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.4842497629995</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1497.146744455149</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M44" t="n">
-        <v>1497.146744455149</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.146744455149</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605961</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763889</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268072</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067748</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3266.657353644177</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>2909.167938770427</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2909.167938770427</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2909.167938770427</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2503.830668725317</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>344.1817390425906</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>934.6666656109302</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L45" t="n">
-        <v>1771.465473693836</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M45" t="n">
-        <v>1771.465473693836</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.465473693836</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1771.465473693836</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1771.465473693836</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.7369761063553</v>
+        <v>608.0932463474678</v>
       </c>
       <c r="C46" t="n">
-        <v>341.7644129852713</v>
+        <v>436.1206832263838</v>
       </c>
       <c r="D46" t="n">
-        <v>178.447640112042</v>
+        <v>272.8039103531545</v>
       </c>
       <c r="E46" t="n">
-        <v>178.447640112042</v>
+        <v>106.595704506008</v>
       </c>
       <c r="F46" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T46" t="n">
-        <v>2009.557929402028</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.373480902332</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.662013510361</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.809609682874</v>
+        <v>1267.165879923986</v>
       </c>
       <c r="X46" t="n">
-        <v>930.2457131286789</v>
+        <v>1024.601983369791</v>
       </c>
       <c r="Y46" t="n">
-        <v>703.9029448184209</v>
+        <v>798.2592150595335</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>404.3352739792688</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>522.0887335865923</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>113.770988142953</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642007</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662973</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>505.119719367511</v>
       </c>
       <c r="O3" t="n">
-        <v>465.9293750477953</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>55.0511501629871</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,10 +8139,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>322.1293906135691</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>354.1411744239327</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>172.0949298956461</v>
       </c>
       <c r="O6" t="n">
-        <v>383.0815870834484</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8377,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8386,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>364.3093421868743</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8456,19 +8458,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>456.538457816883</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748071</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>99.71676862514317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,7 +8613,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>383.6719772281421</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>809.38634515545</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>335.0705424201143</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>586.0789411493244</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>198.9713854064914</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>421.8259818174598</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798424</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9012,10 +9014,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>43.78117139729849</v>
+        <v>859.4646438927568</v>
       </c>
       <c r="O15" t="n">
         <v>921.6378271075471</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>362.1014486857561</v>
+        <v>466.3243076206832</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>502.8069773889825</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9258,10 +9260,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286654</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9479,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>647.5129654954686</v>
+        <v>530.1725249301787</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9495,13 +9497,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9650,13 +9652,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>347.6167633797893</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,19 +9956,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
-        <v>187.0266028900253</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10124,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>493.0472488628404</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>749.810964578424</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>728.607001161029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150499</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,22 +10673,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>666.8880674041833</v>
       </c>
       <c r="N36" t="n">
-        <v>850.4262850442697</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646197</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314277</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10896,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10905,7 +10907,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10914,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>53.89195754947579</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>324.1795137750922</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>724.808294917818</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369255</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719398</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>791.8596365713893</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>106.3367244377138</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3961502510354</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>257.256899973168</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>754.6294027524718</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314277</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11376,16 +11378,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,10 +11396,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.71380249601847</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>107.1650550037355</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>131.0791068915077</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>97.47199731944619</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>75.33869098487298</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>149.013659206616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>185.7044539824133</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>142.9755238000612</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>160.1671282623269</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>44.90651342055943</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>79.01379532835668</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>3.579618755101791</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.0686357123458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>139.026545796027</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>66.28277819799393</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>188.3524235834894</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>154.8145808676392</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>122.499278133501</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>18.44967133088781</v>
+        <v>16.93792262753482</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25366,10 +25368,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.43651514669855</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>144.9469937666279</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>199.0317804264077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>83.07145248366828</v>
+        <v>0.507536986446155</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>223.8317135802165</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>65.23940003763312</v>
+        <v>165.8930952940075</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>526416.2182398613</v>
+        <v>527793.10931104</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>526416.2182398613</v>
+        <v>532251.1805295369</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>526416.2182398613</v>
+        <v>532251.1805295369</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436958.7151580275</v>
+        <v>549571.7629762985</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436958.7151580275</v>
+        <v>549571.7629762983</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>549571.7629762985</v>
+        <v>549571.7629762983</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>549571.7629762985</v>
+        <v>549571.7629762983</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>549571.7629762983</v>
+        <v>549571.7629762985</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>436958.7151580276</v>
+        <v>549571.7629762983</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436958.7151580275</v>
+        <v>549571.7629762986</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103255</v>
+        <v>538759.4679103256</v>
       </c>
       <c r="C2" t="n">
         <v>538759.4679103257</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103261</v>
       </c>
       <c r="E2" t="n">
-        <v>413372.7938833158</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="F2" t="n">
-        <v>413372.7938833157</v>
+        <v>519878.1229021388</v>
       </c>
       <c r="G2" t="n">
-        <v>519878.1229021387</v>
+        <v>519878.1229021389</v>
       </c>
       <c r="H2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="I2" t="n">
+        <v>519878.1229021385</v>
+      </c>
+      <c r="J2" t="n">
+        <v>519878.1229021382</v>
+      </c>
+      <c r="K2" t="n">
         <v>519878.1229021384</v>
       </c>
-      <c r="I2" t="n">
-        <v>519878.1229021386</v>
-      </c>
-      <c r="J2" t="n">
-        <v>519878.1229021384</v>
-      </c>
-      <c r="K2" t="n">
-        <v>519878.1229021386</v>
-      </c>
       <c r="L2" t="n">
-        <v>519878.1229021383</v>
+        <v>519878.1229021381</v>
       </c>
       <c r="M2" t="n">
         <v>519878.1229021389</v>
       </c>
       <c r="N2" t="n">
-        <v>519878.1229021384</v>
+        <v>519878.1229021385</v>
       </c>
       <c r="O2" t="n">
-        <v>413372.7938833156</v>
+        <v>519878.1229021386</v>
       </c>
       <c r="P2" t="n">
-        <v>413372.7938833156</v>
+        <v>519878.1229021388</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695917</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361179</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802892</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701944</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207111.2789421974</v>
+        <v>203366.9722795532</v>
       </c>
       <c r="C4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
-        <v>207111.2789421974</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>68898.71414051214</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="F4" t="n">
-        <v>68898.71414051212</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784779</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="I4" t="n">
         <v>86696.74064784778</v>
       </c>
       <c r="J4" t="n">
+        <v>86696.74064784778</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86696.74064784774</v>
+      </c>
+      <c r="L4" t="n">
         <v>86696.74064784776</v>
       </c>
-      <c r="K4" t="n">
-        <v>86696.74064784776</v>
-      </c>
-      <c r="L4" t="n">
-        <v>86696.74064784778</v>
-      </c>
       <c r="M4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784774</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784779</v>
       </c>
       <c r="O4" t="n">
-        <v>68898.71414051211</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="P4" t="n">
-        <v>68898.71414051211</v>
+        <v>86696.74064784784</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216133</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115341.7540797792</v>
+        <v>110226.5767390194</v>
       </c>
       <c r="C6" t="n">
-        <v>269967.4746979</v>
+        <v>256662.6544466655</v>
       </c>
       <c r="D6" t="n">
-        <v>269967.4746978999</v>
+        <v>280069.4881202776</v>
       </c>
       <c r="E6" t="n">
-        <v>156622.3819133222</v>
+        <v>139691.9635092206</v>
       </c>
       <c r="F6" t="n">
-        <v>289386.049922924</v>
+        <v>355431.3200658614</v>
       </c>
       <c r="G6" t="n">
-        <v>253271.3999715513</v>
+        <v>355431.3200658615</v>
       </c>
       <c r="H6" t="n">
+        <v>355431.3200658612</v>
+      </c>
+      <c r="I6" t="n">
         <v>355431.320065861</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>228854.0514855715</v>
+      </c>
+      <c r="K6" t="n">
+        <v>336784.7197088415</v>
+      </c>
+      <c r="L6" t="n">
+        <v>355431.3200658606</v>
+      </c>
+      <c r="M6" t="n">
+        <v>175367.448610694</v>
+      </c>
+      <c r="N6" t="n">
         <v>355431.3200658611</v>
       </c>
-      <c r="J6" t="n">
-        <v>234708.803123104</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>355431.3200658612</v>
       </c>
-      <c r="L6" t="n">
-        <v>355431.3200658608</v>
-      </c>
-      <c r="M6" t="n">
-        <v>244621.9599567281</v>
-      </c>
-      <c r="N6" t="n">
-        <v>355431.320065861</v>
-      </c>
-      <c r="O6" t="n">
-        <v>289386.0499229239</v>
-      </c>
       <c r="P6" t="n">
-        <v>289386.0499229239</v>
+        <v>355431.3200658613</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539694</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374937</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539694</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162478</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539694</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162478</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572618</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539694</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162478</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>207.0456008685537</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>75.57816325185229</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>37.27963371350145</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>76.49610053957889</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,10 +27621,10 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>14.26407947698945</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>82.23069669041803</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>121.8758238331023</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>83.77413248746612</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>15.63330690876728</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>385.4281338467633</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>202.6984056385314</v>
       </c>
       <c r="W10" t="n">
-        <v>261.8314411155822</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>368.5706731844595</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539694</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539694</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539694</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539694</v>
       </c>
       <c r="O3" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>33.28030895815844</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,10 +34859,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>300.2106307178678</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="O6" t="n">
-        <v>359.9096973612262</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35106,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>341.8101546884499</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35176,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>419.1474984608589</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>362.9230762525416</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>771.0743027228272</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>297.6795830640902</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>563.679707315991</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>177.6283571929498</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>384.4350224614357</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>62.4828257933862</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>22.43814318375683</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="O15" t="n">
         <v>898.4659373853249</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>324.5260868755248</v>
+        <v>428.7489458104519</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.492718418434</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>624.4161849831406</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36370,13 +36372,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>324.5199828674614</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36844,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>455.4718870526091</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>726.6390748562018</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>428.7489458104519</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>643.7912868918553</v>
       </c>
       <c r="N36" t="n">
-        <v>829.083256830728</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319968</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>839.8024120319959</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>30.72006782725357</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>302.4086725702635</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>686.4962524851951</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374937</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374937</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>754.4686772153652</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>83.23994392538586</v>
       </c>
       <c r="N42" t="n">
-        <v>906.0531220374937</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>234.0850102509458</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>716.3173603198489</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>839.8024120319959</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38096,16 +38098,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.96676420703998</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404442</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2309239.261267631</v>
+        <v>2308542.60006254</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954497</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>328.2053270059393</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>324.7175085345935</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>175.5024969901369</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>202.3982521784725</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>173.5406636191338</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>241.0931370856447</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>42.71857617560787</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>65.14500142416607</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>376.7941292938893</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
@@ -1293,19 +1293,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>6.464056402160108</v>
       </c>
       <c r="V10" t="n">
-        <v>76.19594707952</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.283897344658</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>142.6662602692067</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1827,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>86.39942580679876</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1849,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068488</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>45.28878522488377</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536212</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -2241,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>8.209635605837841</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.0655452987987</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>237.3263355412572</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2538,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.33176001090012</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2806,7 +2806,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>89.0301804312094</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3249,10 +3249,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>117.6389794551519</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>125.4203831793923</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3562,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250119</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>23.48670323942855</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3723,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.649880648614</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.9261600196103</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3979,10 +3979,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068496</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3236211855909</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458131</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026565</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446585</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.250061189177739</v>
+        <v>98.15366458399271</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4194,7 +4194,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1188.638128786318</v>
+        <v>932.2144580460986</v>
       </c>
       <c r="C2" t="n">
-        <v>1165.777802840022</v>
+        <v>505.3137280593987</v>
       </c>
       <c r="D2" t="n">
-        <v>1146.525586065426</v>
+        <v>486.061511284803</v>
       </c>
       <c r="E2" t="n">
-        <v>720.5486462132836</v>
+        <v>464.1249754730646</v>
       </c>
       <c r="F2" t="n">
-        <v>699.4648684430879</v>
+        <v>39.00079366246484</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748115</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884635</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231755</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231755</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="K2" t="n">
-        <v>403.5871017449325</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="L2" t="n">
-        <v>882.5260259873621</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873621</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873621</v>
+        <v>403.5871017449319</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873621</v>
+        <v>882.5260259873613</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229792</v>
+        <v>1361.464950229791</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733975</v>
+        <v>1817.550429733974</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615877</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489018</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533651</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="U2" t="n">
-        <v>1609.813899533651</v>
+        <v>1676.751855212289</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.813899533651</v>
+        <v>1676.751855212289</v>
       </c>
       <c r="W2" t="n">
-        <v>1213.422549833998</v>
+        <v>1676.751855212289</v>
       </c>
       <c r="X2" t="n">
-        <v>1205.742955042149</v>
+        <v>1669.07226042044</v>
       </c>
       <c r="Y2" t="n">
-        <v>1204.446089037443</v>
+        <v>1263.73499037533</v>
       </c>
     </row>
     <row r="3">
@@ -4397,34 +4397,34 @@
         <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.132000312404</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000796</v>
+        <v>92.07822853000795</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231755</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231755</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719086</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="K3" t="n">
-        <v>310.3996245719086</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="L3" t="n">
-        <v>310.3996245719086</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="M3" t="n">
-        <v>789.3385488143383</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.277473056768</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="O3" t="n">
-        <v>1268.277473056768</v>
+        <v>822.2860546829155</v>
       </c>
       <c r="P3" t="n">
         <v>1301.224978925345</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>620.496504870739</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="C4" t="n">
-        <v>448.5239417496551</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="D4" t="n">
-        <v>448.5239417496551</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="E4" t="n">
-        <v>448.5239417496551</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="F4" t="n">
-        <v>448.5239417496551</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438872</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520416</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231755</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647556</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="K4" t="n">
-        <v>96.19346351647556</v>
+        <v>165.7127968735049</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271647</v>
+        <v>520.4021181679257</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974155</v>
+        <v>911.5879131381764</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773451</v>
+        <v>1289.079424014212</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453215</v>
+        <v>1644.507552693975</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375115</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615877</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615877</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S4" t="n">
-        <v>1764.971717135012</v>
+        <v>1764.971717135011</v>
       </c>
       <c r="T4" t="n">
-        <v>1521.632369360912</v>
+        <v>1521.632369360911</v>
       </c>
       <c r="U4" t="n">
-        <v>1241.447920861217</v>
+        <v>1241.447920861215</v>
       </c>
       <c r="V4" t="n">
-        <v>1037.005241893063</v>
+        <v>959.7364534692442</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.005241893063</v>
+        <v>684.8840496417572</v>
       </c>
       <c r="X4" t="n">
-        <v>1037.005241893063</v>
+        <v>442.3201530875623</v>
       </c>
       <c r="Y4" t="n">
-        <v>810.6624735828048</v>
+        <v>215.9773847773043</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.190625897137</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
         <v>895.898005082137</v>
@@ -4567,25 +4567,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,22 +4594,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1724.324787764863</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1366.835372891113</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.835372891113</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y5" t="n">
         <v>1357.858912094558</v>
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>1153.275937980036</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>1703.941472964474</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>1853.185855629757</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>838.3642489656286</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>666.3916858445446</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>503.0749129713153</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>503.0749129713153</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>331.2131387458757</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.43685720741</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1811.43685720741</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.725389815439</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1254.872985987952</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1254.872985987952</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>1028.530217677694</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>831.8385222885897</v>
+        <v>2150.131759924241</v>
       </c>
       <c r="C8" t="n">
-        <v>404.9377923018898</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>385.6855755272941</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1260.663347376674</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>416.2236218818665</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K9" t="n">
-        <v>416.2236218818665</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>416.2236218818665</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>659.4347056307208</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>1210.100240615159</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1760.765775599597</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1760.765775599597</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.2141720205701</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C10" t="n">
-        <v>623.2416088994861</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>459.9248360262568</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>459.9248360262568</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1531.252408707715</v>
+        <v>2171.343289248377</v>
       </c>
       <c r="V10" t="n">
-        <v>1454.286805597088</v>
+        <v>1889.631821856406</v>
       </c>
       <c r="W10" t="n">
-        <v>1454.286805597088</v>
+        <v>1614.779418028919</v>
       </c>
       <c r="X10" t="n">
-        <v>1211.722909042894</v>
+        <v>1372.215521474724</v>
       </c>
       <c r="Y10" t="n">
-        <v>985.3801407326357</v>
+        <v>1145.872753164466</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5047,43 +5047,43 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1581.174581076926</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2585.460682495985</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>3561.711740982686</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>4406.856391133498</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P11" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>3756.065627259876</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>3652.225668775161</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>3547.523735048099</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>3453.877904731003</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>3359.824132948607</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>3306.448039710917</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>3313.894682672829</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>3585.59217195242</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>4143.635082195251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>4143.635082195251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>4143.635082195251</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N12" t="n">
-        <v>4143.635082195251</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>5033.116360206723</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>5033.116360206723</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>5033.116360206723</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>5115.135670291425</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>5033.81142285268</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>4891.931487150358</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>4707.163291069995</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>4502.190152209262</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>4305.668775042479</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>4142.191428809142</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>4002.498540162434</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.8257932127801</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C13" t="n">
-        <v>697.8532300916961</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D13" t="n">
-        <v>534.5364572184668</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E13" t="n">
-        <v>368.3282513713204</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.441863840363</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>1286.334530235104</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>1059.991761924846</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5278,34 +5278,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
         <v>4789.842805209199</v>
@@ -5320,7 +5320,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5348,34 +5348,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>109.7493563677403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7493563677403</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>109.7493563677403</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>109.7493563677403</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M15" t="n">
-        <v>109.7493563677403</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N15" t="n">
-        <v>939.4897558901635</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.0970829842499</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C16" t="n">
-        <v>512.1245198631659</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D16" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E16" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F16" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.169716560768</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.605820006574</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2630516963156</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5515,52 +5515,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151242</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1082.193820490623</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409523</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>517.8401132784821</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>345.8675501573981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>345.8675501573981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573981</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,49 +5752,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291425</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5822,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5831,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.79262694784</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1263.481480696891</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>681.046097256067</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C22" t="n">
-        <v>681.046097256067</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7293243828377</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E22" t="n">
-        <v>517.7293243828377</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F22" t="n">
-        <v>345.8675501573981</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W22" t="n">
-        <v>1260.306816359498</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X22" t="n">
-        <v>1017.742919805303</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y22" t="n">
-        <v>871.2120659681327</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6068,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>528.0267489559496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.4138558574795</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>675.4412927363954</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1825.81850877147</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1545.634060271774</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1263.922592879803</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1263.922592879803</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1263.922592879803</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1037.579824569545</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>5029.203358561359</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1688.129489254169</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>543.5554397491844</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>543.5554397491844</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>543.5554397491844</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>371.6936655237448</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>205.436695817977</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6499,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6542,19 +6542,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.612604842225</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1975.612604842225</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.760201014738</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1458.196304460543</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P32" t="n">
-        <v>4573.117879057176</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q32" t="n">
-        <v>5029.203358561359</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6779,25 +6779,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>855.0038060102931</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1720.81982492729</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6937,31 +6937,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
         <v>5010.768376164567</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7007,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7016,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>739.6560874287652</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
         <v>1828.971033901635</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1068.606254915256</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>896.6336917941717</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>733.3169189209424</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>567.1087130737959</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>395.2469388483563</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>228.9899691425884</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2002.531292319261</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>2002.531292319261</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1727.678888491774</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1485.114991937579</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>1258.772223627321</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7180,34 +7180,34 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109899</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.0699265966</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747412</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
         <v>4173.998480931861</v>
@@ -7244,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7253,28 +7253,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M39" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N39" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O39" t="n">
-        <v>1529.586448057074</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>747.6452875977553</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>575.6727244766713</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>412.355951603442</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2211.953184840041</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1968.613837065941</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.429388566245</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1406.717921174274</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.717921174274</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1164.154024620079</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>937.8112563098209</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7420,43 +7420,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2110.0395278175</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N41" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>373.9330558909921</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>373.9330558909921</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2113.093356960765</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1869.754009186664</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1589.569560686969</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1307.858093294998</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1033.005689467511</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>790.4417929133158</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>564.0990246030578</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623572</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7654,7 +7654,7 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1180.414480198223</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="M44" t="n">
         <v>2011.818868109899</v>
@@ -7681,7 +7681,7 @@
         <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
         <v>4173.998480931861</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7730,22 +7730,22 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M45" t="n">
-        <v>1429.986740661465</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N45" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O45" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P45" t="n">
-        <v>1910.990343986338</v>
+        <v>1680.682846292257</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>608.0932463474678</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>436.1206832263838</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D46" t="n">
-        <v>272.8039103531545</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E46" t="n">
-        <v>106.595704506008</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F46" t="n">
         <v>102.3027134058285</v>
@@ -7818,40 +7818,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025269</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251169</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751473</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1542.018283751473</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1267.165879923986</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1024.601983369791</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>798.2592150595335</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>404.3352739792688</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865923</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>405.8502960189051</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099931</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529642007</v>
+        <v>521.3520529642003</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8057,25 +8057,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681986</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662973</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.119719367511</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>330.8941070436047</v>
       </c>
       <c r="P3" t="n">
-        <v>55.0511501629871</v>
+        <v>505.5475323587978</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>149.2582520094669</v>
       </c>
       <c r="L4" t="n">
-        <v>322.1293906135691</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>546.3101998434627</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>86.13502881159596</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>172.0949298956461</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
@@ -8476,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>268.7645418748071</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>809.38634515545</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8707,7 +8707,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>586.0789411493244</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8938,16 +8938,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838786</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.60750039798424</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9017,16 +9017,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>859.4646438927568</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>392.0964168176105</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192185</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.3243076206832</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>407.0273017394389</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286654</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>530.1725249301787</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>124.138595085601</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>177.9816038035657</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>121.8329647736533</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>165.0112248015704</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10123,16 +10123,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10190,22 +10190,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>132.1575803849285</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>121.8329647736533</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,16 +10427,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10445,10 +10445,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>464.8736204150499</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10673,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>666.8880674041833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>1022.176719479639</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10828,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>877.2336749314277</v>
+        <v>517.6546514635589</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10919,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>324.1795137750922</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>791.8596365713893</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11138,28 +11138,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11302,10 +11302,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646188</v>
       </c>
       <c r="M44" t="n">
-        <v>877.2336749314277</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11378,25 +11378,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>255.3808743436059</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>97.47199731944619</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>63.5299405605043</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23667,13 +23667,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>185.7044539824133</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.9755238000612</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>66.44073542471749</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>153.4739695386592</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>79.01379532835668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>3.579618755101791</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>139.026545796027</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>188.3524235834894</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>122.499278133501</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>16.93792262753482</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>144.9469937666279</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25806,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0.507536986446155</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>165.8930952940075</v>
+        <v>71.98949189919247</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>549571.7629762985</v>
+        <v>549571.7629762983</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>549571.7629762983</v>
+        <v>549571.7629762985</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>549571.7629762983</v>
+        <v>549571.7629762985</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>549571.7629762985</v>
+        <v>549571.7629762983</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>549571.7629762986</v>
+        <v>549571.7629762983</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538759.4679103256</v>
+        <v>538759.4679103255</v>
       </c>
       <c r="C2" t="n">
         <v>538759.4679103257</v>
       </c>
       <c r="D2" t="n">
-        <v>538759.4679103261</v>
+        <v>538759.4679103257</v>
       </c>
       <c r="E2" t="n">
+        <v>519878.1229021388</v>
+      </c>
+      <c r="F2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="G2" t="n">
+        <v>519878.1229021388</v>
+      </c>
+      <c r="H2" t="n">
+        <v>519878.1229021391</v>
+      </c>
+      <c r="I2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="J2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="K2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="L2" t="n">
+        <v>519878.1229021384</v>
+      </c>
+      <c r="M2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="N2" t="n">
+        <v>519878.1229021386</v>
+      </c>
+      <c r="O2" t="n">
         <v>519878.1229021385</v>
       </c>
-      <c r="F2" t="n">
-        <v>519878.1229021388</v>
-      </c>
-      <c r="G2" t="n">
-        <v>519878.1229021389</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>519878.1229021386</v>
-      </c>
-      <c r="I2" t="n">
-        <v>519878.1229021385</v>
-      </c>
-      <c r="J2" t="n">
-        <v>519878.1229021382</v>
-      </c>
-      <c r="K2" t="n">
-        <v>519878.1229021384</v>
-      </c>
-      <c r="L2" t="n">
-        <v>519878.1229021381</v>
-      </c>
-      <c r="M2" t="n">
-        <v>519878.1229021389</v>
-      </c>
-      <c r="N2" t="n">
-        <v>519878.1229021385</v>
-      </c>
-      <c r="O2" t="n">
-        <v>519878.1229021386</v>
-      </c>
-      <c r="P2" t="n">
-        <v>519878.1229021388</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695917</v>
+        <v>162124.6960695916</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361179</v>
+        <v>23406.83367361188</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802892</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701944</v>
+        <v>18646.60035701952</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551675</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203366.9722795532</v>
+        <v>203366.9722795533</v>
       </c>
       <c r="C4" t="n">
         <v>191243.7287526203</v>
@@ -26426,40 +26426,40 @@
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
+        <v>86696.74064784776</v>
+      </c>
+      <c r="F4" t="n">
+        <v>86696.74064784776</v>
+      </c>
+      <c r="G4" t="n">
         <v>86696.74064784775</v>
-      </c>
-      <c r="F4" t="n">
-        <v>86696.74064784775</v>
-      </c>
-      <c r="G4" t="n">
-        <v>86696.74064784779</v>
       </c>
       <c r="H4" t="n">
         <v>86696.74064784775</v>
       </c>
       <c r="I4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="J4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784776</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784779</v>
+        <v>86696.74064784775</v>
       </c>
       <c r="O4" t="n">
+        <v>86696.74064784776</v>
+      </c>
+      <c r="P4" t="n">
         <v>86696.74064784775</v>
-      </c>
-      <c r="P4" t="n">
-        <v>86696.74064784784</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216133</v>
+        <v>63041.22282216132</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,13 +26502,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
         <v>77750.06218842966</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110226.5767390194</v>
+        <v>110226.5767390193</v>
       </c>
       <c r="C6" t="n">
         <v>256662.6544466655</v>
       </c>
       <c r="D6" t="n">
-        <v>280069.4881202776</v>
+        <v>280069.4881202773</v>
       </c>
       <c r="E6" t="n">
-        <v>139691.9635092206</v>
+        <v>139640.9328470365</v>
       </c>
       <c r="F6" t="n">
-        <v>355431.3200658614</v>
+        <v>355380.2894036768</v>
       </c>
       <c r="G6" t="n">
-        <v>355431.3200658615</v>
+        <v>355380.289403677</v>
       </c>
       <c r="H6" t="n">
-        <v>355431.3200658612</v>
+        <v>355380.2894036774</v>
       </c>
       <c r="I6" t="n">
-        <v>355431.320065861</v>
+        <v>355380.2894036767</v>
       </c>
       <c r="J6" t="n">
-        <v>228854.0514855715</v>
+        <v>228803.0208233876</v>
       </c>
       <c r="K6" t="n">
-        <v>336784.7197088415</v>
+        <v>336733.6890466574</v>
       </c>
       <c r="L6" t="n">
-        <v>355431.3200658606</v>
+        <v>355380.2894036766</v>
       </c>
       <c r="M6" t="n">
-        <v>175367.448610694</v>
+        <v>175316.4179485092</v>
       </c>
       <c r="N6" t="n">
-        <v>355431.3200658611</v>
+        <v>355380.2894036768</v>
       </c>
       <c r="O6" t="n">
-        <v>355431.3200658612</v>
+        <v>355380.2894036768</v>
       </c>
       <c r="P6" t="n">
-        <v>355431.3200658613</v>
+        <v>355380.2894036769</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539694</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,16 +26798,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26822,13 +26822,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
         <v>1278.783917572856</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539694</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162478</v>
+        <v>72.45112196162506</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>722.5561044572624</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>483.7766911539691</v>
+      </c>
+      <c r="K4" t="n">
+        <v>72.45112196162506</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>722.5561044572622</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>483.7766911539694</v>
-      </c>
-      <c r="K4" t="n">
-        <v>72.45112196162478</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>722.5561044572618</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.609011774391923e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539694</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162478</v>
+        <v>72.45112196162506</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572622</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>87.44455364267543</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>75.57816325185229</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.76181203480809</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27551,13 +27551,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>76.49610053957889</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>82.23069669041803</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>160.1907602590139</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>121.8758238331023</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>350.5048792244486</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>15.63330690876728</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>270.9185476125386</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6984056385314</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>368.5706731844595</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539694</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>368.5706731844591</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539694</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539694</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539694</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>307.7222173213825</v>
       </c>
       <c r="P3" t="n">
-        <v>33.28030895815844</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>128.2935975567549</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2106307178678</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>510.5455990486533</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>150.7519016821045</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>245.6677613624791</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>771.0743027228272</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35427,7 +35427,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>563.679707315991</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35658,16 +35658,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494326</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.4828257933862</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>838.1216156792152</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>369.349378528632</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>267.053332433632</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104519</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2564605346102</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.492718418434</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>102.3677538807724</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>155.5823699702324</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>86.80031487885682</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>142.2641865125919</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36843,16 +36843,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>86.80031487885682</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>428.7489458104519</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>643.7912868918553</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37548,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>839.8024120319959</v>
+        <v>480.2233885641272</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>302.4086725702635</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>754.4686772153652</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>839.8024120319959</v>
       </c>
       <c r="M44" t="n">
-        <v>839.8024120319959</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38098,25 +38098,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404442</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
